--- a/webScrapping/espn_scrapper/IPL/Rajasthan Royals/Jofra Archer.xlsx
+++ b/webScrapping/espn_scrapper/IPL/Rajasthan Royals/Jofra Archer.xlsx
@@ -439,48 +439,48 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Oct 22 2020</v>
+        <v xml:space="preserve"> Oct 17 2020</v>
       </c>
       <c r="B2" t="str">
         <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C2" t="str">
-        <v>Sunrisers won by 8 wickets (with 11 balls remaining)</v>
+        <v>RCB won by 7 wickets (with 2 balls remaining)</v>
       </c>
       <c r="D2" t="str">
         <v>Rajasthan Royals</v>
       </c>
       <c r="E2" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Royal Challengers Bangalore</v>
       </c>
       <c r="F2" t="str">
         <v>Jofra Archer</v>
       </c>
       <c r="G2" t="str">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H2" t="str">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="str">
-        <v>228.57</v>
+        <v>66.66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v xml:space="preserve"> Oct 17 2020</v>
+        <v xml:space="preserve"> Oct 3 2020</v>
       </c>
       <c r="B3" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
+        <v xml:space="preserve"> Abu Dhabi</v>
       </c>
       <c r="C3" t="str">
-        <v>RCB won by 7 wickets (with 2 balls remaining)</v>
+        <v>RCB won by 8 wickets (with 5 balls remaining)</v>
       </c>
       <c r="D3" t="str">
         <v>Rajasthan Royals</v>
@@ -492,19 +492,19 @@
         <v>Jofra Archer</v>
       </c>
       <c r="G3" t="str">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H3" t="str">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="str">
-        <v>66.66</v>
+        <v>160.00</v>
       </c>
     </row>
     <row r="4">
@@ -544,19 +544,19 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v xml:space="preserve"> Oct 3 2020</v>
+        <v xml:space="preserve"> Oct 22 2020</v>
       </c>
       <c r="B5" t="str">
-        <v xml:space="preserve"> Abu Dhabi</v>
+        <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C5" t="str">
-        <v>RCB won by 8 wickets (with 5 balls remaining)</v>
+        <v>Sunrisers won by 8 wickets (with 11 balls remaining)</v>
       </c>
       <c r="D5" t="str">
         <v>Rajasthan Royals</v>
       </c>
       <c r="E5" t="str">
-        <v>Royal Challengers Bangalore</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="F5" t="str">
         <v>Jofra Archer</v>
@@ -565,7 +565,7 @@
         <v>16</v>
       </c>
       <c r="H5" t="str">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I5" t="str">
         <v>1</v>
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="K5" t="str">
-        <v>160.00</v>
+        <v>228.57</v>
       </c>
     </row>
   </sheetData>
